--- a/dislocation_density/Juan_diffraction.xlsx
+++ b/dislocation_density/Juan_diffraction.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Giovani\Arquivos 2023\Pos doc\Parcerias\Juan_trilho\New_submission\Results_difrraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\repositories\X-ray Diffraction\SXRD\dislocation_density\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4773CEDF-20D3-4298-8E27-9B741E9A7163}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE2CCE1-F6C5-4D6D-B605-6BE15C970D91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GGQT_S1_1" sheetId="1" r:id="rId1"/>
@@ -581,7 +581,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -598,10 +598,6 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -960,13 +956,10 @@
   <dimension ref="A1:AQ352"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -3631,7 +3624,7 @@
         <v>1897.0894722679375</v>
       </c>
       <c r="J23">
-        <v>2.3559358275253701E-2</v>
+        <v>2.3559358275253735E-2</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
@@ -3725,991 +3718,991 @@
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
+      <c r="A40" s="2"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
+      <c r="A41" s="2"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
+      <c r="A42" s="2"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="A44" s="2"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
+      <c r="A45" s="2"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+      <c r="A46" s="2"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
+      <c r="A47" s="2"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
+      <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
+      <c r="A49" s="2"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
+      <c r="A51" s="2"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
+      <c r="A52" s="2"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
+      <c r="A53" s="2"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
+      <c r="A54" s="2"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
+      <c r="A55" s="2"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
+      <c r="A60" s="2"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
+      <c r="A61" s="2"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
+      <c r="A62" s="2"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
+      <c r="A63" s="2"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
+      <c r="A64" s="2"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
+      <c r="A65" s="2"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
+      <c r="A66" s="2"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
+      <c r="A67" s="2"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
+      <c r="A68" s="2"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
+      <c r="A69" s="2"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
+      <c r="A70" s="2"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
+      <c r="A71" s="2"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
+      <c r="A72" s="2"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
+      <c r="A73" s="2"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
+      <c r="A74" s="2"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
+      <c r="A75" s="2"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
+      <c r="A76" s="2"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
+      <c r="A77" s="2"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
+      <c r="A78" s="2"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
+      <c r="A79" s="2"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
+      <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
+      <c r="A81" s="2"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
+      <c r="A82" s="2"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
+      <c r="A83" s="2"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
+      <c r="A84" s="2"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
+      <c r="A85" s="2"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
+      <c r="A86" s="2"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
+      <c r="A87" s="2"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
+      <c r="A88" s="2"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
+      <c r="A89" s="2"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
+      <c r="A90" s="2"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
+      <c r="A91" s="2"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
+      <c r="A92" s="2"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
+      <c r="A94" s="2"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
+      <c r="A95" s="2"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
+      <c r="A96" s="2"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
+      <c r="A97" s="2"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
+      <c r="A98" s="2"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
+      <c r="A99" s="2"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
+      <c r="A100" s="2"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
+      <c r="A101" s="2"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
+      <c r="A102" s="2"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
+      <c r="A103" s="2"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
+      <c r="A104" s="2"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
+      <c r="A105" s="2"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
+      <c r="A106" s="2"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
+      <c r="A107" s="2"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
+      <c r="A108" s="2"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
+      <c r="A109" s="2"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
+      <c r="A110" s="2"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
+      <c r="A111" s="2"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6"/>
+      <c r="A112" s="2"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
+      <c r="A113" s="2"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
+      <c r="A114" s="2"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
+      <c r="A115" s="2"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
+      <c r="A116" s="2"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
+      <c r="A117" s="2"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="6"/>
+      <c r="A118" s="2"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
+      <c r="A119" s="2"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
+      <c r="A120" s="2"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
+      <c r="A121" s="2"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
+      <c r="A122" s="2"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="6"/>
+      <c r="A123" s="2"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
+      <c r="A124" s="2"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
+      <c r="A125" s="2"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="6"/>
+      <c r="A126" s="2"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="6"/>
+      <c r="A127" s="2"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="6"/>
+      <c r="A128" s="2"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="6"/>
+      <c r="A129" s="2"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
+      <c r="A130" s="2"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="6"/>
+      <c r="A131" s="2"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="6"/>
+      <c r="A132" s="2"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="6"/>
+      <c r="A133" s="2"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="6"/>
+      <c r="A134" s="2"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="6"/>
+      <c r="A135" s="2"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="6"/>
+      <c r="A136" s="2"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
+      <c r="A137" s="2"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="6"/>
+      <c r="A138" s="2"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="6"/>
+      <c r="A139" s="2"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="6"/>
+      <c r="A140" s="2"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="6"/>
+      <c r="A141" s="2"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="6"/>
+      <c r="A142" s="2"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="6"/>
+      <c r="A143" s="2"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="6"/>
+      <c r="A144" s="2"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="6"/>
+      <c r="A145" s="2"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="6"/>
+      <c r="A146" s="2"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="6"/>
+      <c r="A147" s="2"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="6"/>
+      <c r="A148" s="2"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="6"/>
+      <c r="A149" s="2"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="6"/>
+      <c r="A150" s="2"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="6"/>
+      <c r="A151" s="2"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="6"/>
+      <c r="A152" s="2"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="6"/>
+      <c r="A153" s="2"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="6"/>
+      <c r="A154" s="2"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="6"/>
+      <c r="A155" s="2"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="6"/>
+      <c r="A156" s="2"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="6"/>
+      <c r="A157" s="2"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="6"/>
+      <c r="A158" s="2"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="6"/>
+      <c r="A159" s="2"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="6"/>
+      <c r="A160" s="2"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="6"/>
+      <c r="A161" s="2"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="6"/>
+      <c r="A162" s="2"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="6"/>
+      <c r="A163" s="2"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="6"/>
+      <c r="A164" s="2"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="6"/>
+      <c r="A165" s="2"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="6"/>
+      <c r="A166" s="2"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="6"/>
+      <c r="A167" s="2"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="6"/>
+      <c r="A168" s="2"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="6"/>
+      <c r="A169" s="2"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="6"/>
+      <c r="A170" s="2"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="6"/>
+      <c r="A171" s="2"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="6"/>
+      <c r="A172" s="2"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="6"/>
+      <c r="A173" s="2"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="6"/>
+      <c r="A174" s="2"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="6"/>
+      <c r="A175" s="2"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="6"/>
+      <c r="A176" s="2"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="6"/>
+      <c r="A177" s="2"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="6"/>
+      <c r="A178" s="2"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="6"/>
+      <c r="A179" s="2"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="6"/>
+      <c r="A180" s="2"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="6"/>
+      <c r="A181" s="2"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="6"/>
+      <c r="A182" s="2"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="6"/>
+      <c r="A183" s="2"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="6"/>
+      <c r="A184" s="2"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="6"/>
+      <c r="A185" s="2"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="6"/>
+      <c r="A186" s="2"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="6"/>
+      <c r="A187" s="2"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="6"/>
+      <c r="A188" s="2"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="6"/>
+      <c r="A189" s="2"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="6"/>
+      <c r="A190" s="2"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="6"/>
+      <c r="A191" s="2"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="6"/>
+      <c r="A192" s="2"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="6"/>
+      <c r="A193" s="2"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="6"/>
+      <c r="A194" s="2"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="6"/>
+      <c r="A195" s="2"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="6"/>
+      <c r="A196" s="2"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="6"/>
+      <c r="A197" s="2"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="6"/>
+      <c r="A198" s="2"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="6"/>
+      <c r="A199" s="2"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="6"/>
+      <c r="A200" s="2"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="6"/>
+      <c r="A201" s="2"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="6"/>
+      <c r="A202" s="2"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="6"/>
+      <c r="A203" s="2"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="6"/>
+      <c r="A204" s="2"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="6"/>
+      <c r="A205" s="2"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="6"/>
+      <c r="A206" s="2"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="6"/>
+      <c r="A207" s="2"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="6"/>
+      <c r="A208" s="2"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="6"/>
+      <c r="A209" s="2"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="6"/>
+      <c r="A210" s="2"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="6"/>
+      <c r="A211" s="2"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="6"/>
+      <c r="A212" s="2"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="6"/>
+      <c r="A213" s="2"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="6"/>
+      <c r="A214" s="2"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="6"/>
+      <c r="A215" s="2"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="6"/>
+      <c r="A216" s="2"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="6"/>
+      <c r="A217" s="2"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="6"/>
+      <c r="A218" s="2"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="6"/>
+      <c r="A219" s="2"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="6"/>
+      <c r="A220" s="2"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="6"/>
+      <c r="A221" s="2"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="6"/>
+      <c r="A222" s="2"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="6"/>
+      <c r="A223" s="2"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="6"/>
+      <c r="A224" s="2"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="6"/>
+      <c r="A225" s="2"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="6"/>
+      <c r="A226" s="2"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="6"/>
+      <c r="A227" s="2"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="6"/>
+      <c r="A228" s="2"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="6"/>
+      <c r="A229" s="2"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="6"/>
+      <c r="A230" s="2"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="6"/>
+      <c r="A231" s="2"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="6"/>
+      <c r="A232" s="2"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="6"/>
+      <c r="A233" s="2"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="6"/>
+      <c r="A234" s="2"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="6"/>
+      <c r="A235" s="2"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="6"/>
+      <c r="A236" s="2"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="6"/>
+      <c r="A237" s="2"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="6"/>
+      <c r="A238" s="2"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="6"/>
+      <c r="A239" s="2"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="6"/>
+      <c r="A240" s="2"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="6"/>
+      <c r="A241" s="2"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="6"/>
+      <c r="A242" s="2"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="6"/>
+      <c r="A243" s="2"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="6"/>
+      <c r="A244" s="2"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="6"/>
+      <c r="A245" s="2"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="6"/>
+      <c r="A246" s="2"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="6"/>
+      <c r="A247" s="2"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="6"/>
+      <c r="A248" s="2"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="6"/>
+      <c r="A249" s="2"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="6"/>
+      <c r="A250" s="2"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="6"/>
+      <c r="A251" s="2"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="6"/>
+      <c r="A252" s="2"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="6"/>
+      <c r="A253" s="2"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="6"/>
+      <c r="A254" s="2"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="6"/>
+      <c r="A255" s="2"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="6"/>
+      <c r="A256" s="2"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="6"/>
+      <c r="A257" s="2"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="6"/>
+      <c r="A258" s="2"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="6"/>
+      <c r="A259" s="2"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="6"/>
+      <c r="A260" s="2"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="6"/>
+      <c r="A261" s="2"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="6"/>
+      <c r="A262" s="2"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="6"/>
+      <c r="A263" s="2"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="6"/>
+      <c r="A264" s="2"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="6"/>
+      <c r="A265" s="2"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="6"/>
+      <c r="A266" s="2"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="6"/>
+      <c r="A267" s="2"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="6"/>
+      <c r="A268" s="2"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="6"/>
+      <c r="A269" s="2"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="6"/>
+      <c r="A270" s="2"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="6"/>
+      <c r="A271" s="2"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="6"/>
+      <c r="A272" s="2"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="6"/>
+      <c r="A273" s="2"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="6"/>
+      <c r="A274" s="2"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="6"/>
+      <c r="A275" s="2"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="6"/>
+      <c r="A276" s="2"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="6"/>
+      <c r="A277" s="2"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="6"/>
+      <c r="A278" s="2"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="6"/>
+      <c r="A279" s="2"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="6"/>
+      <c r="A280" s="2"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="6"/>
+      <c r="A281" s="2"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="6"/>
+      <c r="A282" s="2"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="6"/>
+      <c r="A283" s="2"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="6"/>
+      <c r="A284" s="2"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="6"/>
+      <c r="A285" s="2"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="6"/>
+      <c r="A286" s="2"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="6"/>
+      <c r="A287" s="2"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="6"/>
+      <c r="A288" s="2"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="6"/>
+      <c r="A289" s="2"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="6"/>
+      <c r="A290" s="2"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="6"/>
+      <c r="A291" s="2"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="6"/>
+      <c r="A292" s="2"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="6"/>
+      <c r="A293" s="2"/>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="6"/>
+      <c r="A294" s="2"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="6"/>
+      <c r="A295" s="2"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="6"/>
+      <c r="A296" s="2"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="6"/>
+      <c r="A297" s="2"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="6"/>
+      <c r="A298" s="2"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="6"/>
+      <c r="A299" s="2"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="6"/>
+      <c r="A300" s="2"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="6"/>
+      <c r="A301" s="2"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="6"/>
+      <c r="A302" s="2"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="6"/>
+      <c r="A303" s="2"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="6"/>
+      <c r="A304" s="2"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="6"/>
+      <c r="A305" s="2"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="6"/>
+      <c r="A306" s="2"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="6"/>
+      <c r="A307" s="2"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="6"/>
+      <c r="A308" s="2"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="6"/>
+      <c r="A309" s="2"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="6"/>
+      <c r="A310" s="2"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="6"/>
+      <c r="A311" s="2"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="6"/>
+      <c r="A312" s="2"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="6"/>
+      <c r="A313" s="2"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="6"/>
+      <c r="A314" s="2"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="6"/>
+      <c r="A315" s="2"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="6"/>
+      <c r="A316" s="2"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="6"/>
+      <c r="A317" s="2"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="6"/>
+      <c r="A318" s="2"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="6"/>
+      <c r="A319" s="2"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="6"/>
+      <c r="A320" s="2"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="6"/>
+      <c r="A321" s="2"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="6"/>
+      <c r="A322" s="2"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="6"/>
+      <c r="A323" s="2"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="6"/>
+      <c r="A324" s="2"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="6"/>
+      <c r="A325" s="2"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="6"/>
+      <c r="A326" s="2"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="6"/>
+      <c r="A327" s="2"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="6"/>
+      <c r="A328" s="2"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="6"/>
+      <c r="A329" s="2"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="6"/>
+      <c r="A330" s="2"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="6"/>
+      <c r="A331" s="2"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="6"/>
+      <c r="A332" s="2"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="6"/>
+      <c r="A333" s="2"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="6"/>
+      <c r="A334" s="2"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="6"/>
+      <c r="A335" s="2"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="6"/>
+      <c r="A336" s="2"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="6"/>
+      <c r="A337" s="2"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="6"/>
+      <c r="A338" s="2"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="6"/>
+      <c r="A339" s="2"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="6"/>
+      <c r="A340" s="2"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="6"/>
+      <c r="A341" s="2"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="6"/>
+      <c r="A342" s="2"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="6"/>
+      <c r="A343" s="2"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="6"/>
+      <c r="A344" s="2"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="6"/>
+      <c r="A345" s="2"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="6"/>
+      <c r="A346" s="2"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="6"/>
+      <c r="A347" s="2"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="6"/>
+      <c r="A348" s="2"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="6"/>
+      <c r="A349" s="2"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="6"/>
+      <c r="A350" s="2"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="6"/>
+      <c r="A351" s="2"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="6"/>
+      <c r="A352" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/dislocation_density/Juan_diffraction.xlsx
+++ b/dislocation_density/Juan_diffraction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\repositories\X-ray Diffraction\SXRD\dislocation_density\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE2CCE1-F6C5-4D6D-B605-6BE15C970D91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342A20F0-4576-4D55-9E06-26B086FEB6CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="2580" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GGQT_S1_1" sheetId="1" r:id="rId1"/>
@@ -592,10 +592,10 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -955,19 +955,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ352"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL20" sqref="AL20:AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
@@ -978,11 +978,11 @@
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
       <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
@@ -993,11 +993,11 @@
       </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
       <c r="W1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1008,16 +1008,16 @@
       </c>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5" t="s">
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
       <c r="AI1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1028,9 +1028,9 @@
       </c>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3252,13 +3252,13 @@
         <v>16</v>
       </c>
       <c r="H20">
-        <v>3.0151587901604784</v>
+        <v>3.0151679482725156</v>
       </c>
       <c r="I20">
-        <v>1847.6755445596243</v>
+        <v>1834.8203309129672</v>
       </c>
       <c r="J20">
-        <v>2.3875685446745967E-2</v>
+        <v>2.4053449208538809E-2</v>
       </c>
       <c r="K20" t="s">
         <v>16</v>
@@ -3279,13 +3279,13 @@
         <v>16</v>
       </c>
       <c r="Q20">
-        <v>4.2688435061000911</v>
+        <v>4.2688039817534307</v>
       </c>
       <c r="R20">
-        <v>271.33964458890364</v>
+        <v>268.93550233735959</v>
       </c>
       <c r="S20">
-        <v>2.695489751616309E-2</v>
+        <v>2.7265442910566463E-2</v>
       </c>
       <c r="T20" t="s">
         <v>16</v>
@@ -3306,13 +3306,13 @@
         <v>16</v>
       </c>
       <c r="Z20">
-        <v>5.2336884647553026</v>
+        <v>5.2335129145811292</v>
       </c>
       <c r="AA20">
-        <v>557.63878943582358</v>
+        <v>540.29640317523194</v>
       </c>
       <c r="AB20">
-        <v>2.4489736259844186E-2</v>
+        <v>2.5083109532412252E-2</v>
       </c>
       <c r="AC20" t="s">
         <v>16</v>
@@ -3342,13 +3342,13 @@
         <v>16</v>
       </c>
       <c r="AL20">
-        <v>6.0541610797559837</v>
+        <v>6.0491636924138632</v>
       </c>
       <c r="AM20">
-        <v>3.4984503282265598</v>
+        <v>153.73001369899831</v>
       </c>
       <c r="AN20">
-        <v>6.763151347124316E-2</v>
+        <v>2.4918052727329658E-2</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
@@ -4706,12 +4706,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="T1:V1"/>
@@ -4720,6 +4714,12 @@
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/dislocation_density/Juan_diffraction.xlsx
+++ b/dislocation_density/Juan_diffraction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\repositories\X-ray Diffraction\SXRD\dislocation_density\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342A20F0-4576-4D55-9E06-26B086FEB6CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F478D2D5-B216-4168-A886-691AD71B8B28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="2580" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GGQT_S1_1" sheetId="1" r:id="rId1"/>
@@ -955,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL20" sqref="AL20:AN20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL15" sqref="AL15:AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,13 +2642,13 @@
         <v>16</v>
       </c>
       <c r="H15">
-        <v>3.0136064918317671</v>
+        <v>3.0135601530486489</v>
       </c>
       <c r="I15">
-        <v>1403.2721025978533</v>
+        <v>1410.1878020865656</v>
       </c>
       <c r="J15">
-        <v>3.6540848036474921E-2</v>
+        <v>3.6575826131895653E-2</v>
       </c>
       <c r="K15">
         <v>3.3931274108321139</v>
@@ -2669,13 +2669,13 @@
         <v>16</v>
       </c>
       <c r="Q15">
-        <v>4.2694722452796103</v>
+        <v>4.2691529298108337</v>
       </c>
       <c r="R15">
-        <v>231.37724560517992</v>
+        <v>245.63546463897148</v>
       </c>
       <c r="S15">
-        <v>4.1277971757020478E-2</v>
+        <v>4.4822799721436435E-2</v>
       </c>
       <c r="T15">
         <v>4.8112006200701201</v>
@@ -2696,13 +2696,13 @@
         <v>16</v>
       </c>
       <c r="Z15">
-        <v>5.232548408479472</v>
+        <v>5.2325315729903981</v>
       </c>
       <c r="AA15">
-        <v>467.48076040428117</v>
+        <v>475.33328580659918</v>
       </c>
       <c r="AB15">
-        <v>3.9554612739485392E-2</v>
+        <v>4.0643160781325308E-2</v>
       </c>
       <c r="AC15">
         <v>5.6450127324068413</v>
@@ -2732,13 +2732,13 @@
         <v>16</v>
       </c>
       <c r="AL15">
-        <v>6.0477110186836072</v>
+        <v>6.0476289547754645</v>
       </c>
       <c r="AM15">
-        <v>129.2693965608498</v>
+        <v>132.03616801685732</v>
       </c>
       <c r="AN15">
-        <v>4.4015245807886121E-2</v>
+        <v>4.5295990214208041E-2</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
@@ -2764,13 +2764,13 @@
         <v>16</v>
       </c>
       <c r="H16">
-        <v>3.0143553754034338</v>
+        <v>3.0143774558612808</v>
       </c>
       <c r="I16">
-        <v>1513.8611974835046</v>
+        <v>1515.4927211045551</v>
       </c>
       <c r="J16">
-        <v>3.1085146673037169E-2</v>
+        <v>3.111900824385162E-2</v>
       </c>
       <c r="K16">
         <v>3.3920666042498198</v>
@@ -2791,13 +2791,13 @@
         <v>16</v>
       </c>
       <c r="Q16">
-        <v>4.2693943811393114</v>
+        <v>4.2693980281620618</v>
       </c>
       <c r="R16">
-        <v>248.61571104538177</v>
+        <v>242.5289293119551</v>
       </c>
       <c r="S16">
-        <v>3.4097716175004511E-2</v>
+        <v>3.4757421258626083E-2</v>
       </c>
       <c r="T16">
         <v>4.8105043333662971</v>
@@ -2818,13 +2818,13 @@
         <v>16</v>
       </c>
       <c r="Z16">
-        <v>5.2334129322700269</v>
+        <v>5.2333666665822296</v>
       </c>
       <c r="AA16">
-        <v>487.37040339915342</v>
+        <v>490.32347906655934</v>
       </c>
       <c r="AB16">
-        <v>3.1406995134801739E-2</v>
+        <v>3.2130706445757752E-2</v>
       </c>
       <c r="AC16">
         <v>5.6433964176182032</v>
@@ -2854,13 +2854,13 @@
         <v>16</v>
       </c>
       <c r="AL16">
-        <v>6.0487602265346361</v>
+        <v>6.0487280056662769</v>
       </c>
       <c r="AM16">
-        <v>135.53019302964626</v>
+        <v>133.52578641710875</v>
       </c>
       <c r="AN16">
-        <v>3.3966501767887826E-2</v>
+        <v>3.4565895030052349E-2</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
